--- a/P0108_Diophantine_Reciprocals_Exploration/misc/FormulaExploration.xlsx
+++ b/P0108_Diophantine_Reciprocals_Exploration/misc/FormulaExploration.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FZROOT\git\projects\ProjectEuler\P0108_Diophantine_Reciprocals_Exploration\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754BA8E2-6696-420F-9204-C420BAB388EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95944BFF-6A5A-4D2F-9AAC-B0D6063FA10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="1770" windowWidth="26835" windowHeight="12705" xr2:uid="{13147F34-5707-4226-AD05-63B1DEDA2FC2}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26835" windowHeight="12705" xr2:uid="{13147F34-5707-4226-AD05-63B1DEDA2FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
@@ -451,10 +450,13 @@
   <dimension ref="A2:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -591,6 +593,9 @@
       <c r="I17" t="s">
         <v>2</v>
       </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
       <c r="N17" t="s">
         <v>13</v>
       </c>
